--- a/structural_share_index.xlsx
+++ b/structural_share_index.xlsx
@@ -466,7 +466,7 @@
         <v>0.4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="E2" t="n">
         <v>-0.291891892</v>
@@ -480,16 +480,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07934579645714285</v>
+        <v>0.07627777677142858</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4101794638142858</v>
+        <v>0.3935134577428572</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7</v>
+        <v>0.35</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.3308336673571429</v>
+        <v>-0.3172356809714286</v>
       </c>
       <c r="F3" t="inlineStr"/>
     </row>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07578112153333333</v>
+        <v>0.07119323431914894</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3907256863222222</v>
+        <v>0.3856232987021276</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9</v>
+        <v>0.47</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.3149445647888889</v>
+        <v>-0.3144300643829787</v>
       </c>
       <c r="F4" t="inlineStr"/>
     </row>
@@ -546,7 +546,7 @@
         <v>0.402684564</v>
       </c>
       <c r="D6" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="E6" t="n">
         <v>-0.299776287</v>
@@ -562,19 +562,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05835321335067505</v>
+        <v>0.05555494788542022</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3872388234499205</v>
+        <v>0.3858197931862442</v>
       </c>
       <c r="D7" t="n">
-        <v>0.969</v>
+        <v>0.5690000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.3288856100992454</v>
+        <v>-0.330264845300824</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.005888328335684534</v>
+        <v>0.04107092963029224</v>
       </c>
     </row>
     <row r="8">
@@ -584,19 +584,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0693636464975713</v>
+        <v>0.06624441533390257</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3661496268939584</v>
+        <v>0.3656339959397661</v>
       </c>
       <c r="D8" t="n">
-        <v>1.9145</v>
+        <v>1.0545</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.296785980396387</v>
+        <v>-0.2993895806058635</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.05765644631674705</v>
+        <v>-0.04783411473909105</v>
       </c>
     </row>
     <row r="9">
@@ -606,19 +606,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.07619810651255549</v>
+        <v>0.07364051646380226</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3642757533389226</v>
+        <v>0.361513997363836</v>
       </c>
       <c r="D9" t="n">
-        <v>1.575</v>
+        <v>0.835</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.2880776468263671</v>
+        <v>-0.2878734809000338</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2322338650231157</v>
+        <v>0.2313605582209974</v>
       </c>
     </row>
     <row r="10">
@@ -628,19 +628,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.08095832897003177</v>
+        <v>0.08117092497446987</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3526428828493964</v>
+        <v>0.3495041029590277</v>
       </c>
       <c r="D10" t="n">
-        <v>1.544</v>
+        <v>0.794</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2716845538793646</v>
+        <v>-0.2683331779845579</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.09370899013315015</v>
+        <v>-0.1048885798476854</v>
       </c>
     </row>
     <row r="11">
@@ -650,19 +650,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.07953337952278711</v>
+        <v>0.07550426201193439</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3566932889943775</v>
+        <v>0.3645063282456978</v>
       </c>
       <c r="D11" t="n">
-        <v>2.6925</v>
+        <v>2.7225</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2771599094715904</v>
+        <v>-0.2890020662337635</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1572756576733355</v>
+        <v>-0.1249384536506635</v>
       </c>
     </row>
     <row r="12">
@@ -672,19 +672,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0785765924326669</v>
+        <v>0.07346585858598161</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3501030552297806</v>
+        <v>0.3514840429189443</v>
       </c>
       <c r="D12" t="n">
-        <v>2.6825</v>
+        <v>2.9125</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.2715264627971137</v>
+        <v>-0.2780181843329627</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.08511021162636023</v>
+        <v>-0.07138323327636287</v>
       </c>
     </row>
     <row r="13">
@@ -694,19 +694,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.07997296529438562</v>
+        <v>0.07629891094722693</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3663393478835924</v>
+        <v>0.3736113186116612</v>
       </c>
       <c r="D13" t="n">
-        <v>2.6785</v>
+        <v>3.1485</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2863663825892068</v>
+        <v>-0.2973124076644343</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.005940288168876151</v>
+        <v>0.03278845531338925</v>
       </c>
     </row>
     <row r="14">
@@ -716,19 +716,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.07503083144407637</v>
+        <v>0.07562478363606376</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3509653241224536</v>
+        <v>0.3715840027926106</v>
       </c>
       <c r="D14" t="n">
-        <v>2.854</v>
+        <v>3.124</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.2759344926783773</v>
+        <v>-0.2959592191565468</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01564291653068994</v>
+        <v>0.1029542503073502</v>
       </c>
     </row>
     <row r="15">
@@ -738,19 +738,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0616435026809537</v>
+        <v>0.07069165368653375</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3031180056651374</v>
+        <v>0.3486501773125208</v>
       </c>
       <c r="D15" t="n">
-        <v>2.6885</v>
+        <v>3.1785</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.2414745029841837</v>
+        <v>-0.2779585236259871</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1287538538868824</v>
+        <v>-0.03821267699464703</v>
       </c>
     </row>
     <row r="16">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05387854874033485</v>
+        <v>0.06754177719287266</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2907285623440602</v>
+        <v>0.3401305096223162</v>
       </c>
       <c r="D16" t="n">
-        <v>2.512</v>
+        <v>3.002</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.2368500136037253</v>
+        <v>-0.2725887324294435</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1277092804737004</v>
+        <v>-0.01952912510577642</v>
       </c>
     </row>
     <row r="17">
@@ -782,19 +782,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0713397436418451</v>
+        <v>0.0751396824756658</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3228187098619124</v>
+        <v>0.345277971315771</v>
       </c>
       <c r="D17" t="n">
-        <v>2.972</v>
+        <v>3.192</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2514789662200673</v>
+        <v>-0.2701382888401052</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1218279047062082</v>
+        <v>-0.09139920879117702</v>
       </c>
     </row>
     <row r="18">
@@ -804,19 +804,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.07304880225158991</v>
+        <v>0.07729095589413372</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3089007092112859</v>
+        <v>0.3458161253310973</v>
       </c>
       <c r="D18" t="n">
-        <v>2.4455</v>
+        <v>3.0155</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.235851906959696</v>
+        <v>-0.2685251694369636</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1452612369320589</v>
+        <v>-0.09269537133449468</v>
       </c>
     </row>
     <row r="19">
@@ -826,19 +826,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.08378966317958914</v>
+        <v>0.08603266388702674</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2941511762854176</v>
+        <v>0.3358995967734651</v>
       </c>
       <c r="D19" t="n">
-        <v>2.972</v>
+        <v>3.242</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.2103615131058285</v>
+        <v>-0.2498669328864384</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.1288458594752468</v>
+        <v>-0.1010639658503435</v>
       </c>
     </row>
     <row r="20">
@@ -848,19 +848,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.09503764666475309</v>
+        <v>0.08913090583996927</v>
       </c>
       <c r="C20" t="n">
-        <v>0.321860205835205</v>
+        <v>0.3417798123859237</v>
       </c>
       <c r="D20" t="n">
-        <v>2.4885</v>
+        <v>3.0885</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.2268225591704519</v>
+        <v>-0.2526489065459544</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.04233672728450999</v>
+        <v>-0.07314985364866566</v>
       </c>
     </row>
     <row r="21">
@@ -870,19 +870,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.07740772446012015</v>
+        <v>0.08050259506298765</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2912632172066835</v>
+        <v>0.3336545065106141</v>
       </c>
       <c r="D21" t="n">
-        <v>1.314</v>
+        <v>2.084</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.2138554927465634</v>
+        <v>-0.2531519114476265</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.14960882828101</v>
+        <v>-0.06288030277164036</v>
       </c>
     </row>
     <row r="22">
@@ -892,19 +892,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.07593777652216803</v>
+        <v>0.08197292239716884</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2704643720712596</v>
+        <v>0.3156616963791157</v>
       </c>
       <c r="D22" t="n">
-        <v>1.2965</v>
+        <v>1.2365</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.1945265955490915</v>
+        <v>-0.2336887739819469</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.1752172027918623</v>
+        <v>-0.1297323283625916</v>
       </c>
     </row>
   </sheetData>

--- a/structural_share_index.xlsx
+++ b/structural_share_index.xlsx
@@ -466,7 +466,7 @@
         <v>0.4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="E2" t="n">
         <v>-0.291891892</v>
@@ -480,16 +480,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07627777677142858</v>
+        <v>0.05979281878947368</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3935134577428572</v>
+        <v>0.3735064921578948</v>
       </c>
       <c r="D3" t="n">
-        <v>0.35</v>
+        <v>0.19</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.3172356809714286</v>
+        <v>-0.3137136733684211</v>
       </c>
       <c r="F3" t="inlineStr"/>
     </row>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07119323431914894</v>
+        <v>0.05262012604347826</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3856232987021276</v>
+        <v>0.3881498074347826</v>
       </c>
       <c r="D4" t="n">
-        <v>0.47</v>
+        <v>0.23</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.3144300643829787</v>
+        <v>-0.3355296813913043</v>
       </c>
       <c r="F4" t="inlineStr"/>
     </row>
@@ -546,13 +546,13 @@
         <v>0.402684564</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="E6" t="n">
         <v>-0.299776287</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02701135323073678</v>
+        <v>0.02701135323073656</v>
       </c>
     </row>
     <row r="7">
@@ -562,19 +562,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05555494788542022</v>
+        <v>0.04913205644120356</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3858197931862442</v>
+        <v>0.3875504390053467</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5690000000000001</v>
+        <v>0.369</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.330264845300824</v>
+        <v>-0.3384183825641432</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04107092963029224</v>
+        <v>0.07874922674061846</v>
       </c>
     </row>
     <row r="8">
@@ -584,19 +584,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.06624441533390257</v>
+        <v>0.05796758252245629</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3656339959397661</v>
+        <v>0.3712761700058593</v>
       </c>
       <c r="D8" t="n">
-        <v>1.0545</v>
+        <v>0.5945</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.2993895806058635</v>
+        <v>-0.313308587483403</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.04783411473909105</v>
+        <v>-0.06622690969025335</v>
       </c>
     </row>
     <row r="9">
@@ -606,19 +606,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.07364051646380226</v>
+        <v>0.06742036616268397</v>
       </c>
       <c r="C9" t="n">
-        <v>0.361513997363836</v>
+        <v>0.3644014175974802</v>
       </c>
       <c r="D9" t="n">
-        <v>0.835</v>
+        <v>0.475</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.2878734809000338</v>
+        <v>-0.2969810514347962</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2313605582209974</v>
+        <v>0.2703176136005325</v>
       </c>
     </row>
     <row r="10">
@@ -628,19 +628,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.08117092497446987</v>
+        <v>0.07938587643991264</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3495041029590277</v>
+        <v>0.3452797924278759</v>
       </c>
       <c r="D10" t="n">
-        <v>0.794</v>
+        <v>0.354</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2683331779845579</v>
+        <v>-0.2658939159879632</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1048885798476854</v>
+        <v>-0.1130255209680303</v>
       </c>
     </row>
     <row r="11">
@@ -650,19 +650,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.07550426201193439</v>
+        <v>0.07766656881290657</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3645063282456978</v>
+        <v>0.3682778685654443</v>
       </c>
       <c r="D11" t="n">
-        <v>2.7225</v>
+        <v>7.337000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2890020662337635</v>
+        <v>-0.2906112997525377</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1249384536506635</v>
+        <v>-0.1412662115142171</v>
       </c>
     </row>
     <row r="12">
@@ -672,19 +672,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.07346585858598161</v>
+        <v>0.0761397651099326</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3514840429189443</v>
+        <v>0.3574056366816648</v>
       </c>
       <c r="D12" t="n">
-        <v>2.9125</v>
+        <v>7.508</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.2780181843329627</v>
+        <v>-0.2812658715717322</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.07138323327636287</v>
+        <v>-0.1022720640026128</v>
       </c>
     </row>
     <row r="13">
@@ -694,19 +694,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.07629891094722693</v>
+        <v>0.07597345355794274</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3736113186116612</v>
+        <v>0.3595361201589924</v>
       </c>
       <c r="D13" t="n">
-        <v>3.1485</v>
+        <v>8.202500000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2973124076644343</v>
+        <v>-0.2835626666010497</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03278845531338925</v>
+        <v>-0.04518262956144392</v>
       </c>
     </row>
     <row r="14">
@@ -716,19 +716,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.07562478363606376</v>
+        <v>0.07823492247708287</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3715840027926106</v>
+        <v>0.3549768740075087</v>
       </c>
       <c r="D14" t="n">
-        <v>3.124</v>
+        <v>8.3565</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.2959592191565468</v>
+        <v>-0.2767419515304259</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1029542503073502</v>
+        <v>0.04079835938387433</v>
       </c>
     </row>
     <row r="15">
@@ -738,19 +738,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.07069165368653375</v>
+        <v>0.07778056904908576</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3486501773125208</v>
+        <v>0.3426512093598714</v>
       </c>
       <c r="D15" t="n">
-        <v>3.1785</v>
+        <v>8.1675</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.2779585236259871</v>
+        <v>-0.2648706403107856</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.03821267699464703</v>
+        <v>-0.0885741864258921</v>
       </c>
     </row>
     <row r="16">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.06754177719287266</v>
+        <v>0.07826656105167203</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3401305096223162</v>
+        <v>0.3374737219155959</v>
       </c>
       <c r="D16" t="n">
-        <v>3.002</v>
+        <v>7.9625</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.2725887324294435</v>
+        <v>-0.2592071608639239</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01952912510577642</v>
+        <v>-0.07842654561871554</v>
       </c>
     </row>
     <row r="17">
@@ -782,19 +782,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0751396824756658</v>
+        <v>0.08048796327022274</v>
       </c>
       <c r="C17" t="n">
-        <v>0.345277971315771</v>
+        <v>0.3447974185939269</v>
       </c>
       <c r="D17" t="n">
-        <v>3.192</v>
+        <v>7.895</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2701382888401052</v>
+        <v>-0.2643094553237042</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.09139920879117702</v>
+        <v>-0.06789755332789704</v>
       </c>
     </row>
     <row r="18">
@@ -804,19 +804,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.07729095589413372</v>
+        <v>0.08110550422647941</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3458161253310973</v>
+        <v>0.3437312896671358</v>
       </c>
       <c r="D18" t="n">
-        <v>3.0155</v>
+        <v>6.877000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.2685251694369636</v>
+        <v>-0.2626257854406564</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.09269537133449468</v>
+        <v>-0.05100840697156639</v>
       </c>
     </row>
     <row r="19">
@@ -826,19 +826,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.08603266388702674</v>
+        <v>0.08336653195821253</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3358995967734651</v>
+        <v>0.3440032316670173</v>
       </c>
       <c r="D19" t="n">
-        <v>3.242</v>
+        <v>8.047000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.2498669328864384</v>
+        <v>-0.2606366997088048</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.1010639658503435</v>
+        <v>-0.01598493739061813</v>
       </c>
     </row>
     <row r="20">
@@ -848,19 +848,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.08913090583996927</v>
+        <v>0.08383781642623232</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3417798123859237</v>
+        <v>0.3410041476302442</v>
       </c>
       <c r="D20" t="n">
-        <v>3.0885</v>
+        <v>7.348</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.2526489065459544</v>
+        <v>-0.2571663312040119</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.07314985364866566</v>
+        <v>-0.007873353703308439</v>
       </c>
     </row>
     <row r="21">
@@ -870,19 +870,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.08050259506298765</v>
+        <v>0.08395017232388889</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3336545065106141</v>
+        <v>0.3364210076848763</v>
       </c>
       <c r="D21" t="n">
-        <v>2.084</v>
+        <v>5.717000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.2531519114476265</v>
+        <v>-0.2524708353609874</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.06288030277164036</v>
+        <v>-0.0447907546410623</v>
       </c>
     </row>
     <row r="22">
@@ -892,19 +892,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.08197292239716884</v>
+        <v>0.0822990903387351</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3156616963791157</v>
+        <v>0.3300620376686122</v>
       </c>
       <c r="D22" t="n">
-        <v>1.2365</v>
+        <v>3.55</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.2336887739819469</v>
+        <v>-0.2477629473298771</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.1297323283625916</v>
+        <v>-0.05659321717340571</v>
       </c>
     </row>
   </sheetData>

--- a/structural_share_index.xlsx
+++ b/structural_share_index.xlsx
@@ -606,19 +606,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.06742036616268397</v>
+        <v>0.0746880969388026</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3644014175974802</v>
+        <v>0.3688458615154391</v>
       </c>
       <c r="D9" t="n">
-        <v>0.475</v>
+        <v>5.763500000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.2969810514347962</v>
+        <v>-0.2941577645766364</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2703176136005325</v>
+        <v>0.2582411831116511</v>
       </c>
     </row>
     <row r="10">
@@ -628,19 +628,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.07938587643991264</v>
+        <v>0.07712709796616259</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3452797924278759</v>
+        <v>0.3622564205410629</v>
       </c>
       <c r="D10" t="n">
-        <v>0.354</v>
+        <v>4.347</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2658939159879632</v>
+        <v>-0.2851293225749004</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1130255209680303</v>
+        <v>-0.04885964987984415</v>
       </c>
     </row>
     <row r="11">
@@ -706,7 +706,7 @@
         <v>-0.2835626666010497</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.04518262956144392</v>
+        <v>-0.03601842022030477</v>
       </c>
     </row>
     <row r="14">
@@ -728,7 +728,7 @@
         <v>-0.2767419515304259</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04079835938387433</v>
+        <v>-0.02941602417012457</v>
       </c>
     </row>
     <row r="15">

--- a/structural_share_index.xlsx
+++ b/structural_share_index.xlsx
@@ -606,19 +606,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0746880969388026</v>
+        <v>0.07559851930364989</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3688458615154391</v>
+        <v>0.3707513919077956</v>
       </c>
       <c r="D9" t="n">
-        <v>5.763500000000001</v>
+        <v>5.312</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.2941577645766364</v>
+        <v>-0.2951528726041457</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2582411831116511</v>
+        <v>0.2624976945916699</v>
       </c>
     </row>
     <row r="10">
@@ -628,19 +628,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.07712709796616259</v>
+        <v>0.07801629368630145</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3622564205410629</v>
+        <v>0.364226863508325</v>
       </c>
       <c r="D10" t="n">
-        <v>4.347</v>
+        <v>4.081</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2851293225749004</v>
+        <v>-0.2862105698220235</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.04885964987984415</v>
+        <v>-0.04525280272744359</v>
       </c>
     </row>
     <row r="11">
@@ -650,19 +650,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.07766656881290657</v>
+        <v>0.07897680101652835</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3682778685654443</v>
+        <v>0.3721085475374869</v>
       </c>
       <c r="D11" t="n">
-        <v>7.337000000000001</v>
+        <v>6.612500000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2906112997525377</v>
+        <v>-0.2931317465209585</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1412662115142171</v>
+        <v>-0.1338184873411867</v>
       </c>
     </row>
     <row r="12">
@@ -672,19 +672,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0761397651099326</v>
+        <v>0.07742560553846899</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3574056366816648</v>
+        <v>0.3607920351991542</v>
       </c>
       <c r="D12" t="n">
-        <v>7.508</v>
+        <v>6.7625</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.2812658715717322</v>
+        <v>-0.2833664296606852</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1022720640026128</v>
+        <v>-0.09556762571758071</v>
       </c>
     </row>
     <row r="13">
@@ -694,19 +694,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.07597345355794274</v>
+        <v>0.07731548083849189</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3595361201589924</v>
+        <v>0.3624468457124503</v>
       </c>
       <c r="D13" t="n">
-        <v>8.202500000000001</v>
+        <v>7.418500000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2835626666010497</v>
+        <v>-0.2851313648739584</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03601842022030477</v>
+        <v>-0.03395361746530579</v>
       </c>
     </row>
     <row r="14">
@@ -716,19 +716,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.07823492247708287</v>
+        <v>0.07956530690766703</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3549768740075087</v>
+        <v>0.3566636765411313</v>
       </c>
       <c r="D14" t="n">
-        <v>8.3565</v>
+        <v>7.534000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.2767419515304259</v>
+        <v>-0.2770983696334643</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.02941602417012457</v>
+        <v>-0.03183739927643303</v>
       </c>
     </row>
     <row r="15">
@@ -738,19 +738,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.07778056904908576</v>
+        <v>0.07901196800917523</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3426512093598714</v>
+        <v>0.342906422981224</v>
       </c>
       <c r="D15" t="n">
-        <v>8.1675</v>
+        <v>7.3485</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.2648706403107856</v>
+        <v>-0.2638944549720488</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.0885741864258921</v>
+        <v>-0.09974112969991578</v>
       </c>
     </row>
     <row r="16">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.07826656105167203</v>
+        <v>0.07933424285781951</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3374737219155959</v>
+        <v>0.3377758745717727</v>
       </c>
       <c r="D16" t="n">
-        <v>7.9625</v>
+        <v>7.182</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.2592071608639239</v>
+        <v>-0.2584416317139532</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.07842654561871554</v>
+        <v>-0.08795960049529516</v>
       </c>
     </row>
     <row r="17">
@@ -782,19 +782,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.08048796327022274</v>
+        <v>0.08149991059463718</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3447974185939269</v>
+        <v>0.3460507706001645</v>
       </c>
       <c r="D17" t="n">
-        <v>7.895</v>
+        <v>7.132000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2643094553237042</v>
+        <v>-0.2645508600055273</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.06789755332789704</v>
+        <v>-0.07217902834901613</v>
       </c>
     </row>
     <row r="18">
@@ -804,19 +804,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.08110550422647941</v>
+        <v>0.08201232559287353</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3437312896671358</v>
+        <v>0.3453880999850814</v>
       </c>
       <c r="D18" t="n">
-        <v>6.877000000000001</v>
+        <v>6.2155</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.2626257854406564</v>
+        <v>-0.2633757743922079</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.05100840697156639</v>
+        <v>-0.04952246835449881</v>
       </c>
     </row>
     <row r="19">
@@ -826,19 +826,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.08336653195821253</v>
+        <v>0.0848188701531274</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3440032316670173</v>
+        <v>0.3466635910905533</v>
       </c>
       <c r="D19" t="n">
-        <v>8.047000000000001</v>
+        <v>7.242</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.2606366997088048</v>
+        <v>-0.2618447209374259</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01598493739061813</v>
+        <v>-0.007767249352927608</v>
       </c>
     </row>
     <row r="20">
@@ -848,19 +848,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.08383781642623232</v>
+        <v>0.08485154141237923</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3410041476302442</v>
+        <v>0.3431533471742492</v>
       </c>
       <c r="D20" t="n">
-        <v>7.348</v>
+        <v>6.6585</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.2571663312040119</v>
+        <v>-0.25830180576187</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.007873353703308439</v>
+        <v>-0.0005410349375828405</v>
       </c>
     </row>
     <row r="21">
@@ -870,19 +870,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.08395017232388889</v>
+        <v>0.08522794691484467</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3364210076848763</v>
+        <v>0.3386214755916054</v>
       </c>
       <c r="D21" t="n">
-        <v>5.717000000000001</v>
+        <v>5.234</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.2524708353609874</v>
+        <v>-0.2533935286767607</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.0447907546410623</v>
+        <v>-0.04217461749522755</v>
       </c>
     </row>
     <row r="22">
@@ -892,19 +892,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0822990903387351</v>
+        <v>0.08324668330368494</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3300620376686122</v>
+        <v>0.33124848364475</v>
       </c>
       <c r="D22" t="n">
-        <v>3.55</v>
+        <v>3.2665</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.2477629473298771</v>
+        <v>-0.248001800341065</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.05659321717340571</v>
+        <v>-0.05837277208437786</v>
       </c>
     </row>
   </sheetData>

--- a/structural_share_index.xlsx
+++ b/structural_share_index.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
         <v>0.4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02</v>
+        <v>0.008333333300000001</v>
       </c>
       <c r="E2" t="n">
         <v>-0.291891892</v>
@@ -480,16 +480,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05979281878947368</v>
+        <v>0.05704114339296366</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3735064921578948</v>
+        <v>0.3558812823004592</v>
       </c>
       <c r="D3" t="n">
-        <v>0.19</v>
+        <v>0.0749999999</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.3137136733684211</v>
+        <v>-0.2988401389074955</v>
       </c>
       <c r="F3" t="inlineStr"/>
     </row>
@@ -500,411 +500,389 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05262012604347826</v>
+        <v>0.05111816859879303</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3881498074347826</v>
+        <v>0.3875183639680647</v>
       </c>
       <c r="D4" t="n">
-        <v>0.23</v>
+        <v>0.09166666650000001</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.3355296813913043</v>
+        <v>-0.3364001953692717</v>
       </c>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2021Q4</t>
+          <t>2022Q1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1493226793183093</v>
+        <v>0.102908277</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3831075597727699</v>
+        <v>0.402684564</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0105</v>
+        <v>0.008333333300000001</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2337848804544606</v>
+        <v>-0.299776287</v>
       </c>
       <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022Q1</t>
+          <t>2022Q2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.102908277</v>
+        <v>0.04639970480210889</v>
       </c>
       <c r="C6" t="n">
-        <v>0.402684564</v>
+        <v>0.3888433962409018</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02</v>
+        <v>0.1333333332</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.299776287</v>
+        <v>-0.3424436914387929</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02701135323073656</v>
+        <v>0.1731867202354249</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022Q2</t>
+          <t>2022Q3</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04913205644120356</v>
+        <v>0.05213945032610409</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3875504390053467</v>
+        <v>0.3773580867036184</v>
       </c>
       <c r="D7" t="n">
-        <v>0.369</v>
+        <v>0.2083333331</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.3384183825641432</v>
+        <v>-0.3252186363775144</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07874922674061846</v>
+        <v>0.08826959312244265</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022Q3</t>
+          <t>2022Q4</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05796758252245629</v>
+        <v>0.07456890343205831</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3712761700058593</v>
+        <v>0.369937611989041</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5945</v>
+        <v>1.8884928218</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.313308587483403</v>
+        <v>-0.2953687085569827</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.06622690969025335</v>
+        <v>-0.1219722443004176</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022Q4</t>
+          <t>2023Q1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.07559851930364989</v>
+        <v>0.07838743747622531</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3707513919077956</v>
+        <v>0.3639284472021985</v>
       </c>
       <c r="D9" t="n">
-        <v>5.312</v>
+        <v>1.4791228062</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.2951528726041457</v>
+        <v>-0.2855410097259732</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2624976945916699</v>
+        <v>-0.04748633528183921</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2023Q1</t>
+          <t>2023Q2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.07801629368630145</v>
+        <v>0.07957850659290683</v>
       </c>
       <c r="C10" t="n">
-        <v>0.364226863508325</v>
+        <v>0.3703992569229075</v>
       </c>
       <c r="D10" t="n">
-        <v>4.081</v>
+        <v>2.4665909069</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2862105698220235</v>
+        <v>-0.2908207503300007</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.04525280272744359</v>
+        <v>-0.1507486994194464</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2023Q2</t>
+          <t>2023Q3</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.07897680101652835</v>
+        <v>0.07757506325723942</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3721085475374869</v>
+        <v>0.3599759990335085</v>
       </c>
       <c r="D11" t="n">
-        <v>6.612500000000001</v>
+        <v>2.5035964888</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2931317465209585</v>
+        <v>-0.282400935776269</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1338184873411867</v>
+        <v>-0.1316582010126335</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2023Q3</t>
+          <t>2023Q4</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.07742560553846899</v>
+        <v>0.07626219378725912</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3607920351991542</v>
+        <v>0.3634170471661184</v>
       </c>
       <c r="D12" t="n">
-        <v>6.7625</v>
+        <v>2.7082456115</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.2833664296606852</v>
+        <v>-0.2871548533788593</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.09556762571758071</v>
+        <v>-0.02780881975701488</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2023Q4</t>
+          <t>2024Q1</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.07731548083849189</v>
+        <v>0.07756450574887219</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3624468457124503</v>
+        <v>0.3605270496924279</v>
       </c>
       <c r="D13" t="n">
-        <v>7.418500000000001</v>
+        <v>2.7858492797</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2851313648739584</v>
+        <v>-0.2829625439435557</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03395361746530579</v>
+        <v>-0.009030106690775974</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024Q1</t>
+          <t>2024Q2</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.07956530690766703</v>
+        <v>0.07650396207711023</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3566636765411313</v>
+        <v>0.3490339542141579</v>
       </c>
       <c r="D14" t="n">
-        <v>7.534000000000001</v>
+        <v>2.6880143514</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.2770983696334643</v>
+        <v>-0.2725299921370476</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.03183739927643303</v>
+        <v>-0.06289358022836444</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024Q2</t>
+          <t>2024Q3</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.07901196800917523</v>
+        <v>0.07587408062511565</v>
       </c>
       <c r="C15" t="n">
-        <v>0.342906422981224</v>
+        <v>0.343827116858486</v>
       </c>
       <c r="D15" t="n">
-        <v>7.3485</v>
+        <v>2.6458732031</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.2638944549720488</v>
+        <v>-0.2679530362333704</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.09974112969991578</v>
+        <v>-0.05116094783179104</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.07933424285781951</v>
+        <v>0.07856301634196641</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3377758745717727</v>
+        <v>0.3458978321782535</v>
       </c>
       <c r="D16" t="n">
-        <v>7.182</v>
+        <v>2.6684808587</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.2584416317139532</v>
+        <v>-0.267334815836287</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.08795960049529516</v>
+        <v>-0.06902212276531694</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024Q4</t>
+          <t>2025Q1</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.08149991059463718</v>
+        <v>0.07926348720140522</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3460507706001645</v>
+        <v>0.3414053954863104</v>
       </c>
       <c r="D17" t="n">
-        <v>7.132000000000001</v>
+        <v>2.3345295035</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2645508600055273</v>
+        <v>-0.2621419082849052</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.07217902834901613</v>
+        <v>-0.07358088942967556</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025Q1</t>
+          <t>2025Q2</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.08201232559287353</v>
+        <v>0.08132440800948877</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3453880999850814</v>
+        <v>0.3400601736860327</v>
       </c>
       <c r="D18" t="n">
-        <v>6.2155</v>
+        <v>2.7126315763</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.2633757743922079</v>
+        <v>-0.2587357656765439</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.04952246835449881</v>
+        <v>-0.05061544365204029</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025Q2</t>
+          <t>2025Q3</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0848188701531274</v>
+        <v>0.08223145772514558</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3466635910905533</v>
+        <v>0.3365925883083096</v>
       </c>
       <c r="D19" t="n">
-        <v>7.242</v>
+        <v>2.4500159467</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.2618447209374259</v>
+        <v>-0.254361130583164</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.007767249352927608</v>
+        <v>-0.05072495479531958</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025Q3</t>
+          <t>2025Q4</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.08485154141237923</v>
+        <v>0.07916596409077691</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3431533471742492</v>
+        <v>0.3306924009905033</v>
       </c>
       <c r="D20" t="n">
-        <v>6.6585</v>
+        <v>1.8167703333</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.25830180576187</v>
+        <v>-0.2515264368997264</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0005410349375828405</v>
+        <v>-0.05913325911968592</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025Q4</t>
+          <t>2026Q1</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.08522794691484467</v>
+        <v>0.07964367563289203</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3386214755916054</v>
+        <v>0.3288143450685608</v>
       </c>
       <c r="D21" t="n">
-        <v>5.234</v>
+        <v>1.1324202542</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.2533935286767607</v>
+        <v>-0.2491706694356687</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.04217461749522755</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2026Q1</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.08324668330368494</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.33124848364475</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3.2665</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-0.248001800341065</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.05837277208437786</v>
+        <v>-0.04948174419764617</v>
       </c>
     </row>
   </sheetData>
